--- a/tables/crosstab/crosstab_app_safety/revealed, VS physically.xlsx
+++ b/tables/crosstab/crosstab_app_safety/revealed, VS physically.xlsx
@@ -435,22 +435,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E2">
-        <v>29.83</v>
+        <v>29.25</v>
       </c>
       <c r="F2">
-        <v>13.45</v>
+        <v>13.75</v>
       </c>
       <c r="G2">
-        <v>43.28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +461,19 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>5.13</v>
+        <v>5.25</v>
       </c>
       <c r="F3">
-        <v>18.34</v>
+        <v>18.5</v>
       </c>
       <c r="G3">
-        <v>23.47</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4">
         <v>11.25</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>46.21</v>
+        <v>45.75</v>
       </c>
       <c r="F5">
-        <v>53.79</v>
+        <v>54.25</v>
       </c>
       <c r="G5">
         <v>100</v>
